--- a/src/main/resources/questions.xlsx
+++ b/src/main/resources/questions.xlsx
@@ -2411,9 +2411,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -2722,14 +2721,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G172"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="J160" sqref="J160"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2742,7 +2741,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -2756,7 +2755,7 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
@@ -2773,7 +2772,7 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
@@ -2793,7 +2792,7 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
@@ -2813,7 +2812,7 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2827,7 +2826,7 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="s">
@@ -2841,7 +2840,7 @@
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
@@ -2858,7 +2857,7 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D8" t="s">
@@ -2878,7 +2877,7 @@
       <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E9" t="s">
@@ -2915,7 +2914,7 @@
       <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F11" t="s">
@@ -2929,7 +2928,7 @@
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D12" t="s">
@@ -2952,7 +2951,7 @@
       <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E13" t="s">
@@ -2989,7 +2988,7 @@
       <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D15" t="s">
@@ -3012,7 +3011,7 @@
       <c r="C16" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E16" t="s">
@@ -3032,7 +3031,7 @@
       <c r="C17" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E17" t="s">
@@ -3058,7 +3057,7 @@
       <c r="E18" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3072,7 +3071,7 @@
       <c r="C19" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3086,7 +3085,7 @@
       <c r="C20" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E20" t="s">
@@ -3106,7 +3105,7 @@
       <c r="C21" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E21" t="s">
@@ -3129,7 +3128,7 @@
       <c r="E22" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3140,7 +3139,7 @@
       <c r="B23" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D23" t="s">
@@ -3160,16 +3159,16 @@
       <c r="B24" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D24" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3183,7 +3182,7 @@
       <c r="C25" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E25" t="s">
@@ -3203,7 +3202,7 @@
       <c r="C26" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E26" t="s">
@@ -3223,7 +3222,7 @@
       <c r="C27" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E27" t="s">
@@ -3243,7 +3242,7 @@
       <c r="D28" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3254,7 +3253,7 @@
       <c r="B29" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D29" t="s">
@@ -3274,7 +3273,7 @@
       <c r="C30" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E30" t="s">
@@ -3294,7 +3293,7 @@
       <c r="D31" t="s">
         <v>134</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3311,7 +3310,7 @@
       <c r="D32" t="s">
         <v>138</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3328,7 +3327,7 @@
       <c r="D33" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3342,7 +3341,7 @@
       <c r="C34" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E34" t="s">
@@ -3362,7 +3361,7 @@
       <c r="D35" t="s">
         <v>150</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3382,7 +3381,7 @@
       <c r="E36" t="s">
         <v>155</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3393,7 +3392,7 @@
       <c r="B37" t="s">
         <v>158</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D37" t="s">
@@ -3419,7 +3418,7 @@
       <c r="D38" t="s">
         <v>165</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>166</v>
       </c>
       <c r="F38" t="s">
@@ -3436,7 +3435,7 @@
       <c r="C39" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E39" t="s">
@@ -3456,7 +3455,7 @@
       <c r="C40" t="s">
         <v>174</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>175</v>
       </c>
       <c r="E40" t="s">
@@ -3482,7 +3481,7 @@
       <c r="E41" t="s">
         <v>181</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="1" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3493,7 +3492,7 @@
       <c r="B42" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>184</v>
       </c>
       <c r="D42" t="s">
@@ -3513,13 +3512,13 @@
       <c r="B43" t="s">
         <v>188</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D43" t="s">
         <v>190</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="1" t="s">
         <v>191</v>
       </c>
       <c r="F43" t="s">
@@ -3533,16 +3532,16 @@
       <c r="B44" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E44" t="s">
         <v>196</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="1" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3570,7 +3569,7 @@
       <c r="C46" t="s">
         <v>202</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>203</v>
       </c>
       <c r="E46" t="s">
@@ -3590,7 +3589,7 @@
       <c r="D47" t="s">
         <v>208</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3607,7 +3606,7 @@
       <c r="D48" t="s">
         <v>212</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3618,7 +3617,7 @@
       <c r="B49" t="s">
         <v>214</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D49" t="s">
@@ -3641,7 +3640,7 @@
       <c r="D50" t="s">
         <v>220</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="1" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3658,7 +3657,7 @@
       <c r="D51" t="s">
         <v>224</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3672,7 +3671,7 @@
       <c r="C52" t="s">
         <v>227</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>228</v>
       </c>
       <c r="E52" t="s">
@@ -3686,7 +3685,7 @@
       <c r="B53" t="s">
         <v>230</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>231</v>
       </c>
       <c r="D53" t="s">
@@ -3709,7 +3708,7 @@
       <c r="C54" t="s">
         <v>236</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E54" t="s">
@@ -3732,7 +3731,7 @@
       <c r="D55" t="s">
         <v>242</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="1" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3749,7 +3748,7 @@
       <c r="D56" t="s">
         <v>246</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="1" t="s">
         <v>247</v>
       </c>
       <c r="F56" t="s">
@@ -3763,7 +3762,7 @@
       <c r="B57" t="s">
         <v>249</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>250</v>
       </c>
       <c r="D57" t="s">
@@ -3783,7 +3782,7 @@
       <c r="B58" t="s">
         <v>254</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D58" t="s">
@@ -3803,13 +3802,13 @@
       <c r="B59" t="s">
         <v>260</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>261</v>
       </c>
       <c r="D59" t="s">
         <v>262</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="1" t="s">
         <v>263</v>
       </c>
       <c r="F59" t="s">
@@ -3826,7 +3825,7 @@
       <c r="C60" t="s">
         <v>266</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>267</v>
       </c>
       <c r="E60" t="s">
@@ -3849,7 +3848,7 @@
       <c r="D61" t="s">
         <v>272</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="1" t="s">
         <v>273</v>
       </c>
       <c r="F61" t="s">
@@ -3872,7 +3871,7 @@
       <c r="E62" t="s">
         <v>278</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="1" t="s">
         <v>279</v>
       </c>
     </row>
@@ -3883,7 +3882,7 @@
       <c r="B63" t="s">
         <v>280</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>281</v>
       </c>
       <c r="D63" t="s">
@@ -3906,7 +3905,7 @@
       <c r="C64" t="s">
         <v>286</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>287</v>
       </c>
       <c r="E64" t="s">
@@ -3932,7 +3931,7 @@
       <c r="E65" t="s">
         <v>293</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="1" t="s">
         <v>294</v>
       </c>
     </row>
@@ -3946,7 +3945,7 @@
       <c r="C66" t="s">
         <v>297</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="1" t="s">
         <v>298</v>
       </c>
       <c r="E66" t="s">
@@ -3960,7 +3959,7 @@
       <c r="B67" t="s">
         <v>300</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D67" t="s">
@@ -3980,7 +3979,7 @@
       <c r="C68" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E68" t="s">
@@ -4006,7 +4005,7 @@
       <c r="E69" t="s">
         <v>311</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="1" t="s">
         <v>312</v>
       </c>
     </row>
@@ -4017,7 +4016,7 @@
       <c r="B70" t="s">
         <v>313</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>314</v>
       </c>
       <c r="D70" t="s">
@@ -4040,7 +4039,7 @@
       <c r="C71" t="s">
         <v>319</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="1" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4051,7 +4050,7 @@
       <c r="B72" t="s">
         <v>322</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>323</v>
       </c>
       <c r="D72" t="s">
@@ -4077,7 +4076,7 @@
       <c r="E73" t="s">
         <v>329</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="1" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4091,7 +4090,7 @@
       <c r="C74" t="s">
         <v>332</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="1" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4102,7 +4101,7 @@
       <c r="B75" t="s">
         <v>334</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D75" t="s">
@@ -4128,7 +4127,7 @@
       <c r="E76" t="s">
         <v>88</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="1" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4145,7 +4144,7 @@
       <c r="D77" t="s">
         <v>341</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="1" t="s">
         <v>342</v>
       </c>
     </row>
@@ -4159,7 +4158,7 @@
       <c r="C78" t="s">
         <v>199</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="1" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4170,7 +4169,7 @@
       <c r="B79" t="s">
         <v>344</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>345</v>
       </c>
       <c r="D79" t="s">
@@ -4196,7 +4195,7 @@
       <c r="D80" t="s">
         <v>351</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="1" t="s">
         <v>352</v>
       </c>
       <c r="F80" t="s">
@@ -4219,7 +4218,7 @@
       <c r="E81" t="s">
         <v>357</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="1" t="s">
         <v>358</v>
       </c>
     </row>
@@ -4230,7 +4229,7 @@
       <c r="B82" t="s">
         <v>359</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>360</v>
       </c>
       <c r="D82" t="s">
@@ -4250,7 +4249,7 @@
       <c r="B83" t="s">
         <v>364</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>365</v>
       </c>
       <c r="D83" t="s">
@@ -4267,7 +4266,7 @@
       <c r="B84" t="s">
         <v>369</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>370</v>
       </c>
       <c r="D84" t="s">
@@ -4284,7 +4283,7 @@
       <c r="C85" t="s">
         <v>373</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="1" t="s">
         <v>374</v>
       </c>
       <c r="E85" t="s">
@@ -4298,7 +4297,7 @@
       <c r="B86" t="s">
         <v>376</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>377</v>
       </c>
       <c r="D86" t="s">
@@ -4318,7 +4317,7 @@
       <c r="D87" t="s">
         <v>381</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="1" t="s">
         <v>382</v>
       </c>
     </row>
@@ -4329,7 +4328,7 @@
       <c r="B88" t="s">
         <v>384</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>385</v>
       </c>
       <c r="D88" t="s">
@@ -4360,7 +4359,7 @@
       <c r="B90" t="s">
         <v>132</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>391</v>
       </c>
       <c r="D90" t="s">
@@ -4380,7 +4379,7 @@
       <c r="C91" t="s">
         <v>395</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="1" t="s">
         <v>396</v>
       </c>
       <c r="E91" t="s">
@@ -4400,7 +4399,7 @@
       <c r="C92" t="s">
         <v>400</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="1" t="s">
         <v>401</v>
       </c>
       <c r="E92" t="s">
@@ -4414,7 +4413,7 @@
       <c r="B93" t="s">
         <v>403</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>404</v>
       </c>
       <c r="D93" t="s">
@@ -4440,7 +4439,7 @@
       <c r="D94" t="s">
         <v>410</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="1" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4451,10 +4450,10 @@
       <c r="B95" t="s">
         <v>412</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="1" t="s">
         <v>414</v>
       </c>
     </row>
@@ -4465,7 +4464,7 @@
       <c r="B96" t="s">
         <v>415</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>416</v>
       </c>
       <c r="D96" t="s">
@@ -4479,7 +4478,7 @@
       <c r="B97" t="s">
         <v>419</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>420</v>
       </c>
       <c r="D97" t="s">
@@ -4502,7 +4501,7 @@
       <c r="C98" t="s">
         <v>425</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="1" t="s">
         <v>426</v>
       </c>
       <c r="E98" t="s">
@@ -4519,13 +4518,13 @@
       <c r="B99" t="s">
         <v>430</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="1" t="s">
         <v>433</v>
       </c>
       <c r="F99" t="s">
@@ -4542,7 +4541,7 @@
       <c r="C100" t="s">
         <v>436</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="1" t="s">
         <v>437</v>
       </c>
       <c r="E100" t="s">
@@ -4565,7 +4564,7 @@
       <c r="E101" t="s">
         <v>442</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="F101" s="1" t="s">
         <v>443</v>
       </c>
     </row>
@@ -4576,7 +4575,7 @@
       <c r="B102" t="s">
         <v>444</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>445</v>
       </c>
       <c r="D102" t="s">
@@ -4596,10 +4595,10 @@
       <c r="B103" t="s">
         <v>449</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="1" t="s">
         <v>451</v>
       </c>
       <c r="E103" t="s">
@@ -4622,7 +4621,7 @@
       <c r="D104" t="s">
         <v>456</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="1" t="s">
         <v>457</v>
       </c>
     </row>
@@ -4633,7 +4632,7 @@
       <c r="B105" t="s">
         <v>458</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>459</v>
       </c>
       <c r="D105" t="s">
@@ -4642,7 +4641,7 @@
       <c r="E105" t="s">
         <v>461</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="F105" s="1" t="s">
         <v>462</v>
       </c>
     </row>
@@ -4656,10 +4655,10 @@
       <c r="C106" t="s">
         <v>464</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="1" t="s">
         <v>466</v>
       </c>
       <c r="F106" t="s">
@@ -4679,7 +4678,7 @@
       <c r="C107" t="s">
         <v>470</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="1" t="s">
         <v>471</v>
       </c>
       <c r="E107" t="s">
@@ -4699,7 +4698,7 @@
       <c r="D108" t="s">
         <v>476</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="1" t="s">
         <v>477</v>
       </c>
       <c r="F108" t="s">
@@ -4713,7 +4712,7 @@
       <c r="B109" t="s">
         <v>479</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D109" t="s">
@@ -4722,7 +4721,7 @@
       <c r="E109" t="s">
         <v>482</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="F109" s="1" t="s">
         <v>483</v>
       </c>
     </row>
@@ -4742,7 +4741,7 @@
       <c r="E110" t="s">
         <v>487</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="F110" s="1" t="s">
         <v>488</v>
       </c>
     </row>
@@ -4756,7 +4755,7 @@
       <c r="C111" t="s">
         <v>490</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="1" t="s">
         <v>491</v>
       </c>
       <c r="E111" t="s">
@@ -4779,7 +4778,7 @@
       <c r="D112" t="s">
         <v>496</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="1" t="s">
         <v>497</v>
       </c>
       <c r="F112" t="s">
@@ -4793,7 +4792,7 @@
       <c r="B113" t="s">
         <v>499</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="1" t="s">
         <v>500</v>
       </c>
       <c r="D113" t="s">
@@ -4816,7 +4815,7 @@
       <c r="C114" t="s">
         <v>505</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="1" t="s">
         <v>506</v>
       </c>
       <c r="E114" t="s">
@@ -4839,7 +4838,7 @@
       <c r="D115" t="s">
         <v>511</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="1" t="s">
         <v>512</v>
       </c>
       <c r="F115" t="s">
@@ -4853,7 +4852,7 @@
       <c r="B116" t="s">
         <v>514</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="1" t="s">
         <v>515</v>
       </c>
       <c r="D116" t="s">
@@ -4882,7 +4881,7 @@
       <c r="E117" t="s">
         <v>523</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="F117" s="1" t="s">
         <v>524</v>
       </c>
     </row>
@@ -4893,7 +4892,7 @@
       <c r="B118" t="s">
         <v>525</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="1" t="s">
         <v>526</v>
       </c>
       <c r="D118" t="s">
@@ -4916,7 +4915,7 @@
       <c r="C119" t="s">
         <v>531</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="1" t="s">
         <v>532</v>
       </c>
       <c r="E119" t="s">
@@ -4936,7 +4935,7 @@
       <c r="C120" t="s">
         <v>536</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="1" t="s">
         <v>537</v>
       </c>
       <c r="E120" t="s">
@@ -4962,7 +4961,7 @@
       <c r="E121" t="s">
         <v>543</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="F121" s="1" t="s">
         <v>544</v>
       </c>
     </row>
@@ -4973,7 +4972,7 @@
       <c r="B122" t="s">
         <v>545</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="1" t="s">
         <v>546</v>
       </c>
       <c r="D122" t="s">
@@ -4999,7 +4998,7 @@
       <c r="D123" t="s">
         <v>552</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" s="1" t="s">
         <v>553</v>
       </c>
       <c r="F123" t="s">
@@ -5022,7 +5021,7 @@
       <c r="E124" t="s">
         <v>557</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="F124" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -5039,7 +5038,7 @@
       <c r="D125" t="s">
         <v>561</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" s="1" t="s">
         <v>562</v>
       </c>
       <c r="F125" t="s">
@@ -5059,7 +5058,7 @@
       <c r="D126" t="s">
         <v>567</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="2" t="s">
         <v>568</v>
       </c>
       <c r="F126" t="s">
@@ -5079,7 +5078,7 @@
       <c r="D127" t="s">
         <v>572</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="1" t="s">
         <v>573</v>
       </c>
       <c r="F127" t="s">
@@ -5099,7 +5098,7 @@
       <c r="D128" t="s">
         <v>577</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" s="1" t="s">
         <v>578</v>
       </c>
       <c r="F128" t="s">
@@ -5119,7 +5118,7 @@
       <c r="D129" t="s">
         <v>582</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" s="1" t="s">
         <v>583</v>
       </c>
       <c r="F129" t="s">
@@ -5142,7 +5141,7 @@
       <c r="E130" t="s">
         <v>588</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="F130" s="1" t="s">
         <v>589</v>
       </c>
     </row>
@@ -5156,7 +5155,7 @@
       <c r="C131" t="s">
         <v>591</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="1" t="s">
         <v>592</v>
       </c>
       <c r="E131" t="s">
@@ -5173,7 +5172,7 @@
       <c r="B132" t="s">
         <v>595</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="1" t="s">
         <v>596</v>
       </c>
       <c r="D132" t="s">
@@ -5182,7 +5181,7 @@
       <c r="E132" t="s">
         <v>598</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="F132" s="1" t="s">
         <v>599</v>
       </c>
     </row>
@@ -5193,7 +5192,7 @@
       <c r="B133" t="s">
         <v>600</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="1" t="s">
         <v>601</v>
       </c>
       <c r="D133" t="s">
@@ -5216,7 +5215,7 @@
       <c r="C134" t="s">
         <v>601</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="1" t="s">
         <v>602</v>
       </c>
       <c r="E134" t="s">
@@ -5239,7 +5238,7 @@
       <c r="D135" t="s">
         <v>602</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" s="1" t="s">
         <v>603</v>
       </c>
       <c r="F135" t="s">
@@ -5259,10 +5258,10 @@
       <c r="D136" t="s">
         <v>610</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E136" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="F136" s="2" t="s">
+      <c r="F136" s="1" t="s">
         <v>612</v>
       </c>
     </row>
@@ -5273,7 +5272,7 @@
       <c r="B137" t="s">
         <v>613</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D137" t="s">
@@ -5293,7 +5292,7 @@
       <c r="C138" t="s">
         <v>618</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="1" t="s">
         <v>619</v>
       </c>
       <c r="E138" t="s">
@@ -5307,7 +5306,7 @@
       <c r="B139" t="s">
         <v>621</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="1" t="s">
         <v>622</v>
       </c>
       <c r="D139" t="s">
@@ -5327,7 +5326,7 @@
       <c r="B140" t="s">
         <v>624</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="1" t="s">
         <v>625</v>
       </c>
       <c r="D140" t="s">
@@ -5347,7 +5346,7 @@
       <c r="C141" t="s">
         <v>629</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" s="1" t="s">
         <v>630</v>
       </c>
       <c r="E141" t="s">
@@ -5367,7 +5366,7 @@
       <c r="D142" t="s">
         <v>634</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E142" s="1" t="s">
         <v>635</v>
       </c>
       <c r="F142" t="s">
@@ -5390,7 +5389,7 @@
       <c r="E143" t="s">
         <v>640</v>
       </c>
-      <c r="F143" s="2" t="s">
+      <c r="F143" s="1" t="s">
         <v>641</v>
       </c>
     </row>
@@ -5404,7 +5403,7 @@
       <c r="C144" t="s">
         <v>643</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="1" t="s">
         <v>644</v>
       </c>
       <c r="E144" t="s">
@@ -5421,7 +5420,7 @@
       <c r="B145" t="s">
         <v>647</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="1" t="s">
         <v>648</v>
       </c>
       <c r="D145" t="s">
@@ -5444,7 +5443,7 @@
       <c r="C146" t="s">
         <v>652</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" s="1" t="s">
         <v>653</v>
       </c>
       <c r="E146" t="s">
@@ -5467,7 +5466,7 @@
       <c r="D147" t="s">
         <v>658</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" s="1" t="s">
         <v>659</v>
       </c>
       <c r="F147" t="s">
@@ -5484,7 +5483,7 @@
       <c r="C148" t="s">
         <v>662</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" s="1" t="s">
         <v>663</v>
       </c>
       <c r="E148" t="s">
@@ -5510,7 +5509,7 @@
       <c r="E149" t="s">
         <v>669</v>
       </c>
-      <c r="F149" s="2" t="s">
+      <c r="F149" s="1" t="s">
         <v>670</v>
       </c>
     </row>
@@ -5521,7 +5520,7 @@
       <c r="B150" t="s">
         <v>671</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="1" t="s">
         <v>672</v>
       </c>
       <c r="D150" t="s">
@@ -5541,13 +5540,13 @@
       <c r="B151" t="s">
         <v>676</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D151" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E151" s="1" t="s">
         <v>679</v>
       </c>
       <c r="F151" t="s">
@@ -5567,7 +5566,7 @@
       <c r="D152" t="s">
         <v>684</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E152" s="1" t="s">
         <v>685</v>
       </c>
       <c r="F152" t="s">
@@ -5590,7 +5589,7 @@
       <c r="E153" t="s">
         <v>690</v>
       </c>
-      <c r="F153" s="2" t="s">
+      <c r="F153" s="1" t="s">
         <v>691</v>
       </c>
     </row>
@@ -5601,7 +5600,7 @@
       <c r="B154" t="s">
         <v>692</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="1" t="s">
         <v>693</v>
       </c>
       <c r="D154" t="s">
@@ -5621,7 +5620,7 @@
       <c r="B155" t="s">
         <v>697</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="1" t="s">
         <v>698</v>
       </c>
       <c r="D155" t="s">
@@ -5647,7 +5646,7 @@
       <c r="D156" t="s">
         <v>704</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E156" s="1" t="s">
         <v>705</v>
       </c>
       <c r="F156" t="s">
@@ -5661,7 +5660,7 @@
       <c r="B157" t="s">
         <v>707</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="1" t="s">
         <v>708</v>
       </c>
       <c r="D157" t="s">
@@ -5681,7 +5680,7 @@
       <c r="B158" t="s">
         <v>712</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="1" t="s">
         <v>713</v>
       </c>
       <c r="D158" t="s">
@@ -5704,7 +5703,7 @@
       <c r="C159" t="s">
         <v>718</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" s="1" t="s">
         <v>719</v>
       </c>
       <c r="E159" t="s">
@@ -5724,7 +5723,7 @@
       <c r="C160" t="s">
         <v>724</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" s="1" t="s">
         <v>725</v>
       </c>
       <c r="E160" t="s">
@@ -5750,7 +5749,7 @@
       <c r="E161" t="s">
         <v>731</v>
       </c>
-      <c r="F161" s="2" t="s">
+      <c r="F161" s="1" t="s">
         <v>732</v>
       </c>
     </row>
@@ -5761,7 +5760,7 @@
       <c r="B162" t="s">
         <v>733</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="1" t="s">
         <v>734</v>
       </c>
       <c r="D162" t="s">
@@ -5784,7 +5783,7 @@
       <c r="C163" t="s">
         <v>739</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D163" s="1" t="s">
         <v>740</v>
       </c>
       <c r="E163" t="s">
@@ -5804,7 +5803,7 @@
       <c r="C164" t="s">
         <v>729</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" s="1" t="s">
         <v>730</v>
       </c>
       <c r="E164" t="s">
@@ -5821,7 +5820,7 @@
       <c r="B165" t="s">
         <v>744</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="1" t="s">
         <v>745</v>
       </c>
       <c r="D165" t="s">
@@ -5841,7 +5840,7 @@
       <c r="B166" t="s">
         <v>750</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="1" t="s">
         <v>751</v>
       </c>
       <c r="D166" t="s">
@@ -5864,7 +5863,7 @@
       <c r="C167" t="s">
         <v>756</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D167" s="1" t="s">
         <v>757</v>
       </c>
       <c r="E167" t="s">
@@ -5887,7 +5886,7 @@
       <c r="D168" t="s">
         <v>762</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="E168" s="1" t="s">
         <v>763</v>
       </c>
     </row>
@@ -5904,7 +5903,7 @@
       <c r="D169" t="s">
         <v>766</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="E169" s="1" t="s">
         <v>767</v>
       </c>
     </row>
@@ -5915,7 +5914,7 @@
       <c r="B170" t="s">
         <v>768</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="1" t="s">
         <v>769</v>
       </c>
       <c r="D170" t="s">
@@ -5938,7 +5937,7 @@
       <c r="D171" t="s">
         <v>774</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E171" s="1" t="s">
         <v>775</v>
       </c>
     </row>
@@ -5949,7 +5948,7 @@
       <c r="B172" t="s">
         <v>776</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="1" t="s">
         <v>777</v>
       </c>
       <c r="D172" t="s">
